--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,16 +458,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Matteo Ciccaldo</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>SPL:Solo Per Letette (ciccu)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -476,124 +476,124 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cormac McAinsh</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mazzucchello Lorenzi</t>
+          <t>Cormac McAinsh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Matteo Ciccaldo</t>
+          <t>Ilona Urban</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPL:Solo Per Letette (ciccu)</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Omar Raafat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Federico Lelli</t>
+          <t>Maurizio Rea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Marzio lorenzelli</t>
+          <t>Sergio Cavalieri</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ilaria Pascutti</t>
+          <t>Mazzucchello Lorenzi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -602,16 +602,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Omar Raafat</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -638,16 +638,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ilona Urban</t>
+          <t>Roberto Janni</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
@@ -656,16 +656,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lorenzo Mazzucchelli</t>
+          <t>Ilaria Pascutti</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
@@ -674,16 +674,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Marzio lorenzelli</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D14" t="n">
         <v>13</v>
@@ -692,34 +692,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Lorenzo Mazzucchelli</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>15</v>
@@ -728,88 +728,88 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Manuel Maimone</t>
+          <t>Federico Lelli</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Maurizio Rea</t>
+          <t>Cristian Diaz Lopez</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cristian Diaz Lopez</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergio Cavalieri</t>
+          <t>Manuel Maimone</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Arturo Guglielmi</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n">
         <v>20</v>
@@ -818,16 +818,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Arturo Guglielmi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
@@ -836,19 +836,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Roberto Janni</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Artificially Degenerated</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
         <v>23</v>
-      </c>
-      <c r="D23" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player Name</t>
+          <t>Rank</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -449,71 +449,49 @@
           <t>Total Points Scored</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Rank</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Matteo Ciccaldo</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPL:Solo Per Letette (ciccu)</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Andrea Limonta</t>
-        </is>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>67</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Cormac McAinsh</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>SPL:Solo Per Letette (ciccu)</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>67</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ilona Urban</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -523,15 +501,10 @@
       <c r="C5" t="n">
         <v>65</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Omar Raafat</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -541,15 +514,10 @@
       <c r="C6" t="n">
         <v>63</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Maurizio Rea</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -559,15 +527,10 @@
       <c r="C7" t="n">
         <v>61</v>
       </c>
-      <c r="D7" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sergio Cavalieri</t>
-        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -577,15 +540,10 @@
       <c r="C8" t="n">
         <v>61</v>
       </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Mazzucchello Lorenzi</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -595,15 +553,10 @@
       <c r="C9" t="n">
         <v>59</v>
       </c>
-      <c r="D9" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Daniele Miccoli</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -613,15 +566,10 @@
       <c r="C10" t="n">
         <v>58</v>
       </c>
-      <c r="D10" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ludovico Righi</t>
-        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -631,15 +579,10 @@
       <c r="C11" t="n">
         <v>58</v>
       </c>
-      <c r="D11" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Roberto Janni</t>
-        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -649,51 +592,36 @@
       <c r="C12" t="n">
         <v>58</v>
       </c>
-      <c r="D12" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ilaria Pascutti</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Mazzu è ok</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Cesarino’s</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>57</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Marzio lorenzelli</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Mazzu è ok</t>
-        </is>
-      </c>
       <c r="C14" t="n">
-        <v>54</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Lorenzo Mazzucchelli</t>
-        </is>
+      <c r="A15" t="n">
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -703,15 +631,10 @@
       <c r="C15" t="n">
         <v>51</v>
       </c>
-      <c r="D15" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Damiano Barbanera</t>
-        </is>
+      <c r="A16" t="n">
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -721,15 +644,10 @@
       <c r="C16" t="n">
         <v>50</v>
       </c>
-      <c r="D16" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Federico Lelli</t>
-        </is>
+      <c r="A17" t="n">
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -739,15 +657,10 @@
       <c r="C17" t="n">
         <v>47</v>
       </c>
-      <c r="D17" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cristian Diaz Lopez</t>
-        </is>
+      <c r="A18" t="n">
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -757,15 +670,10 @@
       <c r="C18" t="n">
         <v>45</v>
       </c>
-      <c r="D18" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Federico Paolucci</t>
-        </is>
+      <c r="A19" t="n">
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -775,69 +683,49 @@
       <c r="C19" t="n">
         <v>42</v>
       </c>
-      <c r="D19" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Manuel Maimone</t>
-        </is>
+      <c r="A20" t="n">
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
-      </c>
-      <c r="D20" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Giovanni Aiello</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>39</v>
       </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Arturo Guglielmi</t>
-        </is>
+      <c r="A22" t="n">
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Fabrizio Limonta</t>
-        </is>
+      <c r="A23" t="n">
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -847,15 +735,10 @@
       <c r="C23" t="n">
         <v>33</v>
       </c>
-      <c r="D23" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Cameron McAinsh</t>
-        </is>
+      <c r="A24" t="n">
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -864,9 +747,6 @@
       </c>
       <c r="C24" t="n">
         <v>9</v>
-      </c>
-      <c r="D24" t="n">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPL:Solo Per Letette (ciccu)</t>
+          <t>SPL Solo Per Letette (ciccu)</t>
         </is>
       </c>
       <c r="C4" t="n">

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -456,20 +456,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>SPL Solo Per Letette (ciccu)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -478,11 +478,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette (ciccu)</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
@@ -690,20 +690,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -712,15 +712,15 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette (ciccu)</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -469,24 +469,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>SPL Solo Per Letette (ciccu)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7">
@@ -521,24 +521,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -560,37 +560,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -625,24 +625,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -651,24 +651,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -677,11 +677,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -703,24 +703,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -729,11 +729,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -482,24 +482,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +560,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -625,24 +625,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -651,37 +651,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -716,11 +716,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -456,297 +456,297 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette (ciccu)</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>SPL Solo Per Letette (ciccu)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette (ciccu)</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C8" t="n">

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -742,10 +742,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Football Meta Academy</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Artificially Degenerated</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>I nemici di mazzu</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>CHIAVO VERONA</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -768,7 +768,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -781,10 +781,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>I nemici di mazzu</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>La Paranza Degli Scarponi</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -768,7 +768,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -807,10 +807,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>I nemici di mazzu</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -768,7 +768,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -820,10 +820,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>I nemici di mazzu</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rahal Madrid</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -482,7 +482,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -625,7 +625,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -638,7 +638,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -716,7 +716,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -729,7 +729,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -742,7 +742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -768,7 +768,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -781,7 +781,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -833,7 +833,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -846,10 +846,49 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Artificially Degenerated</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>I nemici di mazzu</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Limonta United</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Rahal Madrid</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,263 +456,263 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Slayer FC</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Rahal Madrid</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -720,176 +720,189 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>FantasticTeam</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rahal Madrid</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>I nemici di mazzu</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -521,24 +521,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Rahal Madrid</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -547,46 +547,46 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rahal Madrid</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -595,80 +595,80 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -677,24 +677,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Slayer FC</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -716,11 +716,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
@@ -729,16 +729,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -755,11 +755,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -768,11 +768,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -781,11 +781,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -547,7 +547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -586,7 +586,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -599,7 +599,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
@@ -807,20 +807,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -829,11 +829,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -842,15 +842,15 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -859,11 +859,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FantasticTeam</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +872,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>FantasticTeam</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -898,10 +898,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>BARBA FC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>I nemici di mazzu</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -495,37 +495,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -560,24 +560,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -586,50 +586,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +638,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -664,16 +664,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -716,37 +716,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Slayer FC</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -755,11 +755,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -768,24 +768,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>AS TRONZI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Damiano Zingaro</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +807,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -820,37 +820,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33">
@@ -859,11 +859,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +872,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FantasticTeam</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>FantasticTeam</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -898,11 +898,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37">
@@ -911,11 +911,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>BARBA FC</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>I nemici di mazzu</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>11</v>
+      <c r="C38" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Olesto</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>109</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Frozzynone</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>92</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rahal Madrid</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -547,37 +547,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -599,37 +599,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +638,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -651,11 +651,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18">
@@ -664,24 +664,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Slayer FC</t>
+          <t>Quant'è bello Damiano in canotta</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>78</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -703,63 +703,63 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>76</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Rahal Madrid</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -768,11 +768,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Damiano Zingaro</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -781,11 +781,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AS TRONZI</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +807,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +820,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>AS TRONZI</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>64</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -833,11 +833,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -846,11 +846,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +872,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>51</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FantasticTeam</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>47</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -898,11 +898,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>FantasticTeam</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
@@ -911,11 +911,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +924,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>DAS PORTO</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cesarino’s</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BARBA FC</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>I nemici di mazzu</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>38</v>
+      <c r="C41" t="n">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -547,20 +547,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -569,15 +569,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>Olesto</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>185</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olesto</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>176</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>163</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>156</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>153</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
@@ -551,20 +551,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Rahal Madrid</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>138</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>135</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14">
@@ -612,76 +612,76 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>134</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>133</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Slayer FC</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Quant'è bello Damiano in canotta</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>132</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>129</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
@@ -716,24 +716,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rahal Madrid</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>125</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -742,24 +742,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>118</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Damiano Zingaro</t>
+          <t>Quant'è bello Damiano in canotta</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
@@ -768,24 +768,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>117</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>116</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +807,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +820,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AS TRONZI</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -833,24 +833,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>AS TRONZI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>106</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33">
@@ -859,11 +859,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +872,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>82</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37">
@@ -911,11 +911,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>76</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +924,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>64</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +937,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>59</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -954,12 +954,12 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Olesto</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>253</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>240</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>239</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>234</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
@@ -508,11 +508,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Non è la seconda squadra di Mazzu, è la prima</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>231</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Olesto</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>215</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Non è la seconda squadra di Mazzu, è la prima</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>211</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9">
@@ -551,20 +551,20 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>210</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>200</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>198</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>188</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
@@ -625,24 +625,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>183</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
@@ -651,50 +651,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>179</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>179</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -716,11 +716,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>176</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
@@ -733,20 +733,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>173</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
@@ -755,11 +755,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Quant'è bello Damiano in canotta</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
@@ -768,24 +768,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Damiano Zingaro</t>
+          <t>Quant'è bello Damiano in canotta</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>157</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +820,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31">
@@ -833,24 +833,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AS TRONZI</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
@@ -859,16 +859,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>AS TRONZI</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>130</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>128</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>FantasticTeam</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
@@ -898,16 +898,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FantasticTeam</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +924,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cesarino’s</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
@@ -937,11 +937,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>Cesarino’s</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -950,24 +950,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BARBA FC</t>
+          <t>I nemici di mazzu</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>I nemici di mazzu</t>
+          <t>BARBA FC</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>304</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>301</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>277</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>276</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Olesto</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>274</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>272</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9">
@@ -547,16 +547,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Olesto</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rahal Madrid</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>246</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12">
@@ -586,11 +586,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Mazzu è ok</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>239</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mazzu è ok</t>
+          <t>Rahal Madrid</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>238</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15">
@@ -625,11 +625,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
@@ -638,11 +638,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17">
@@ -651,11 +651,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Mazzu doveva Vincere</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>226</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18">
@@ -664,11 +664,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19">
@@ -677,24 +677,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mazzu doveva Vincere</t>
+          <t>Quant'è bello Damiano in canotta</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>209</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21">
@@ -703,11 +703,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22">
@@ -716,11 +716,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
@@ -733,20 +733,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>205</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>205</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -755,11 +755,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Damiano Zingaro</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
@@ -768,24 +768,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Quant'è bello Damiano in canotta</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28">
@@ -794,11 +794,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +807,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>180</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +820,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
@@ -833,11 +833,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>AS TRONZI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>171</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
@@ -846,29 +846,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AS TRONZI</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36">
@@ -898,24 +898,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>124</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -456,11 +456,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHIAVO VERONA</t>
+          <t>LA PALLA NON ERA USCITA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>348</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
@@ -469,11 +469,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LA PALLA NON ERA USCITA</t>
+          <t>Frozzynone</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>347</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
@@ -482,11 +482,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frozzynone</t>
+          <t>Rapid Viennetta</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>341</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
@@ -495,11 +495,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rapid Viennetta</t>
+          <t>CHIAVO VERONA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>332</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
@@ -521,11 +521,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La Paranza Degli Scarponi</t>
+          <t>Omanta</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>322</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
@@ -534,11 +534,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Latin Supremacy</t>
+          <t>Calabria Saudita</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>318</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9">
@@ -547,11 +547,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Olesto</t>
+          <t>La Paranza Degli Scarponi</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>316</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
@@ -560,11 +560,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Omanta</t>
+          <t>Olesto</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>309</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11">
@@ -573,11 +573,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calabria Saudita</t>
+          <t>Latin Supremacy</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>293</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
@@ -599,11 +599,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Affori Grizzlies</t>
+          <t>Rahal Madrid</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14">
@@ -612,11 +612,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rahal Madrid</t>
+          <t>Quant'è bello Damiano in canotta</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>280</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15">
@@ -625,11 +625,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aldo Ritmo</t>
+          <t>Foggia</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>266</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16">
@@ -638,16 +638,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Foggia</t>
+          <t>Affori Grizzlies</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>265</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>262</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18">
@@ -664,11 +664,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Limonta United</t>
+          <t>Football Meta Academy</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>259</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19">
@@ -677,11 +677,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quant'è bello Damiano in canotta</t>
+          <t>SPL Solo Per Letette</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>258</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20">
@@ -690,11 +690,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Caledonians</t>
+          <t>Aldo Ritmo</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21">
@@ -703,24 +703,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPL Solo Per Letette</t>
+          <t>Caledonians</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Football Meta Academy</t>
+          <t>Limonta United</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>250</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23">
@@ -729,11 +729,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Slayer FC</t>
+          <t>AC Tua</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>246</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
@@ -742,11 +742,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Multiple Cancers</t>
+          <t>T'eamCulo</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>240</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25">
@@ -755,11 +755,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T'eamCulo</t>
+          <t>Multiple Cancers</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>237</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
@@ -768,11 +768,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AC Tua</t>
+          <t>Beverly INPS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>233</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
@@ -781,24 +781,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sesso Paperoga Lamborghini</t>
+          <t>Damiano Zingaro</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>226</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Damiano Zingaro</t>
+          <t>Slayer FC</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>220</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
@@ -807,11 +807,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Beverly INPS</t>
+          <t>BaffoImpregnato</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>217</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30">
@@ -820,11 +820,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fel Lazio</t>
+          <t>Sesso Paperoga Lamborghini</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>205</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
@@ -846,24 +846,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fury Bonds</t>
+          <t>Fel Lazio</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>204</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BaffoImpregnato</t>
+          <t>Si è girato Mazzoud</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>204</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34">
@@ -872,11 +872,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Artificially Degenerated</t>
+          <t>Fury Bonds</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>195</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
@@ -885,11 +885,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FantasticTeam</t>
+          <t>Artificially Degenerated</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>179</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -898,11 +898,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Si è girato Mazzoud</t>
+          <t>FantasticTeam</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37">
@@ -911,11 +911,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NonCiCapiscoNaMazza</t>
+          <t>DAS PORTO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>164</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38">
@@ -924,11 +924,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DAS PORTO</t>
+          <t>NonCiCapiscoNaMazza</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>131</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -31,18 +31,18 @@
     <t>Frozzynone</t>
   </si>
   <si>
+    <t>Non è la seconda squadra di Mazzu, è la prima</t>
+  </si>
+  <si>
+    <t>Rapid Viennetta</t>
+  </si>
+  <si>
+    <t>La Paranza Degli Scarponi</t>
+  </si>
+  <si>
     <t>LA PALLA NON ERA USCITA</t>
   </si>
   <si>
-    <t>Rapid Viennetta</t>
-  </si>
-  <si>
-    <t>Non è la seconda squadra di Mazzu, è la prima</t>
-  </si>
-  <si>
-    <t>La Paranza Degli Scarponi</t>
-  </si>
-  <si>
     <t>Omanta</t>
   </si>
   <si>
@@ -52,82 +52,82 @@
     <t>Olesto</t>
   </si>
   <si>
+    <t>Mazzu è ok</t>
+  </si>
+  <si>
     <t>Calabria Saudita</t>
   </si>
   <si>
     <t>Affori Grizzlies</t>
   </si>
   <si>
-    <t>Mazzu è ok</t>
+    <t>Quant'è bello Damiano in canotta</t>
   </si>
   <si>
     <t>Aldo Ritmo</t>
   </si>
   <si>
+    <t>Caledonians</t>
+  </si>
+  <si>
+    <t>Football Meta Academy</t>
+  </si>
+  <si>
     <t>Rahal Madrid</t>
   </si>
   <si>
-    <t>Caledonians</t>
-  </si>
-  <si>
     <t>Limonta United</t>
   </si>
   <si>
-    <t>Football Meta Academy</t>
-  </si>
-  <si>
-    <t>Quant'è bello Damiano in canotta</t>
+    <t>Mazzu doveva Vincere</t>
+  </si>
+  <si>
+    <t>SPL Solo Per Letette</t>
   </si>
   <si>
     <t>Foggia</t>
   </si>
   <si>
-    <t>SPL Solo Per Letette</t>
-  </si>
-  <si>
-    <t>Mazzu doveva Vincere</t>
-  </si>
-  <si>
     <t>Multiple Cancers</t>
   </si>
   <si>
+    <t>T'eamCulo</t>
+  </si>
+  <si>
     <t>AC Tua</t>
   </si>
   <si>
-    <t>T'eamCulo</t>
-  </si>
-  <si>
     <t>Slayer FC</t>
   </si>
   <si>
+    <t>Beverly INPS</t>
+  </si>
+  <si>
+    <t>AS TRONZI</t>
+  </si>
+  <si>
+    <t>BaffoImpregnato</t>
+  </si>
+  <si>
+    <t>Fel Lazio</t>
+  </si>
+  <si>
     <t>Damiano Zingaro</t>
   </si>
   <si>
-    <t>Beverly INPS</t>
-  </si>
-  <si>
-    <t>AS TRONZI</t>
-  </si>
-  <si>
-    <t>BaffoImpregnato</t>
-  </si>
-  <si>
     <t>Sesso Paperoga Lamborghini</t>
   </si>
   <si>
-    <t>Fel Lazio</t>
-  </si>
-  <si>
     <t>Fury Bonds</t>
   </si>
   <si>
+    <t>Artificially Degenerated</t>
+  </si>
+  <si>
+    <t>FantasticTeam</t>
+  </si>
+  <si>
     <t>Si è girato Mazzoud</t>
-  </si>
-  <si>
-    <t>Artificially Degenerated</t>
-  </si>
-  <si>
-    <t>FantasticTeam</t>
   </si>
   <si>
     <t>DAS PORTO</t>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>470</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>469</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>453</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>451</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>448</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>437</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>427</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>412</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>399</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>393</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,18 +701,18 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>344</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -723,18 +723,18 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>336</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -745,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>332</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -756,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>327</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>325</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -778,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -789,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -800,7 +800,7 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>304</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -811,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>293</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>283</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>282</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -844,7 +844,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>278</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -855,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>269</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -866,7 +866,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -877,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>241</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -899,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -910,7 +910,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -921,7 +921,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -932,7 +932,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -943,7 +943,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -954,7 +954,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -25,67 +25,76 @@
     <t>Total Points Scored</t>
   </si>
   <si>
+    <t>Non è la seconda squadra di Mazzu, è la prima</t>
+  </si>
+  <si>
     <t>CHIAVO VERONA</t>
   </si>
   <si>
+    <t>Rapid Viennetta</t>
+  </si>
+  <si>
+    <t>La Paranza Degli Scarponi</t>
+  </si>
+  <si>
+    <t>LA PALLA NON ERA USCITA</t>
+  </si>
+  <si>
+    <t>Calabria Saudita</t>
+  </si>
+  <si>
+    <t>Omanta</t>
+  </si>
+  <si>
+    <t>Latin Supremacy</t>
+  </si>
+  <si>
+    <t>Mazzu è ok</t>
+  </si>
+  <si>
+    <t>Affori Grizzlies</t>
+  </si>
+  <si>
+    <t>Olesto</t>
+  </si>
+  <si>
     <t>Frozzynone</t>
   </si>
   <si>
-    <t>Non è la seconda squadra di Mazzu, è la prima</t>
-  </si>
-  <si>
-    <t>Rapid Viennetta</t>
-  </si>
-  <si>
-    <t>La Paranza Degli Scarponi</t>
-  </si>
-  <si>
-    <t>LA PALLA NON ERA USCITA</t>
-  </si>
-  <si>
-    <t>Omanta</t>
-  </si>
-  <si>
-    <t>Latin Supremacy</t>
-  </si>
-  <si>
-    <t>Olesto</t>
-  </si>
-  <si>
-    <t>Mazzu è ok</t>
-  </si>
-  <si>
-    <t>Calabria Saudita</t>
-  </si>
-  <si>
-    <t>Affori Grizzlies</t>
-  </si>
-  <si>
     <t>Quant'è bello Damiano in canotta</t>
   </si>
   <si>
     <t>Aldo Ritmo</t>
   </si>
   <si>
+    <t>Limonta United</t>
+  </si>
+  <si>
+    <t>Mazzu doveva Vincere</t>
+  </si>
+  <si>
+    <t>Foggia</t>
+  </si>
+  <si>
+    <t>Football Meta Academy</t>
+  </si>
+  <si>
+    <t>SPL Solo Per Letette</t>
+  </si>
+  <si>
     <t>Caledonians</t>
   </si>
   <si>
-    <t>Football Meta Academy</t>
-  </si>
-  <si>
     <t>Rahal Madrid</t>
   </si>
   <si>
-    <t>Limonta United</t>
-  </si>
-  <si>
-    <t>Mazzu doveva Vincere</t>
-  </si>
-  <si>
-    <t>SPL Solo Per Letette</t>
-  </si>
-  <si>
-    <t>Foggia</t>
+    <t>BaffoImpregnato</t>
+  </si>
+  <si>
+    <t>Beverly INPS</t>
+  </si>
+  <si>
+    <t>Slayer FC</t>
   </si>
   <si>
     <t>Multiple Cancers</t>
@@ -97,49 +106,40 @@
     <t>AC Tua</t>
   </si>
   <si>
-    <t>Slayer FC</t>
-  </si>
-  <si>
-    <t>Beverly INPS</t>
-  </si>
-  <si>
     <t>AS TRONZI</t>
   </si>
   <si>
-    <t>BaffoImpregnato</t>
+    <t>Damiano Zingaro</t>
   </si>
   <si>
     <t>Fel Lazio</t>
   </si>
   <si>
-    <t>Damiano Zingaro</t>
-  </si>
-  <si>
     <t>Sesso Paperoga Lamborghini</t>
   </si>
   <si>
+    <t>Si è girato Mazzoud</t>
+  </si>
+  <si>
+    <t>Artificially Degenerated</t>
+  </si>
+  <si>
+    <t>FantasticTeam</t>
+  </si>
+  <si>
     <t>Fury Bonds</t>
   </si>
   <si>
-    <t>Artificially Degenerated</t>
-  </si>
-  <si>
-    <t>FantasticTeam</t>
-  </si>
-  <si>
-    <t>Si è girato Mazzoud</t>
-  </si>
-  <si>
     <t>DAS PORTO</t>
   </si>
   <si>
+    <t>I nemici di mazzu</t>
+  </si>
+  <si>
     <t>NonCiCapiscoNaMazza</t>
   </si>
   <si>
     <t>Cesarino’s</t>
-  </si>
-  <si>
-    <t>I nemici di mazzu</t>
   </si>
   <si>
     <t>BARBA FC</t>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>509</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,18 +536,18 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>506</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>505</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>486</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>457</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>447</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>444</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>442</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>441</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>425</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>396</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>386</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>385</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,18 +701,18 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -723,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>376</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -734,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>375</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -745,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>373</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -756,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -767,18 +767,18 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>346</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -789,18 +789,18 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>340</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27">
-        <v>335</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -811,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>333</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -822,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>330</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -844,7 +844,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -855,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>310</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -866,7 +866,7 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>292</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -877,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>281</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -899,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -910,7 +910,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>246</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -921,7 +921,7 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -932,7 +932,7 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -943,7 +943,7 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>202</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -954,7 +954,7 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/FantaSPL_Classifica.xlsx
+++ b/Excel/Milano/FantaSPL_Classifica.xlsx
@@ -52,12 +52,12 @@
     <t>Mazzu è ok</t>
   </si>
   <si>
+    <t>Olesto</t>
+  </si>
+  <si>
     <t>Affori Grizzlies</t>
   </si>
   <si>
-    <t>Olesto</t>
-  </si>
-  <si>
     <t>Frozzynone</t>
   </si>
   <si>
@@ -91,28 +91,28 @@
     <t>BaffoImpregnato</t>
   </si>
   <si>
+    <t>Slayer FC</t>
+  </si>
+  <si>
     <t>Beverly INPS</t>
   </si>
   <si>
-    <t>Slayer FC</t>
+    <t>T'eamCulo</t>
   </si>
   <si>
     <t>Multiple Cancers</t>
   </si>
   <si>
-    <t>T'eamCulo</t>
-  </si>
-  <si>
     <t>AC Tua</t>
   </si>
   <si>
     <t>AS TRONZI</t>
   </si>
   <si>
+    <t>Fel Lazio</t>
+  </si>
+  <si>
     <t>Damiano Zingaro</t>
-  </si>
-  <si>
-    <t>Fel Lazio</t>
   </si>
   <si>
     <t>Sesso Paperoga Lamborghini</t>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,12 +536,12 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -607,13 +607,13 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -756,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -767,12 +767,12 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -789,12 +789,12 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -833,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -844,7 +844,7 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -855,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -877,7 +877,7 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -910,7 +910,7 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:3">
